--- a/Prezzi_esempio.xlsx
+++ b/Prezzi_esempio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gieck\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA7EEF9F-A43E-4299-8E9D-1CADC7B0755A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54781E1A-BC50-458B-85B6-F7A1D1AC5485}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12696" xr2:uid="{A8BA343A-8690-4B8B-9E62-94EE004CBC22}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12696" activeTab="1" xr2:uid="{A8BA343A-8690-4B8B-9E62-94EE004CBC22}"/>
   </bookViews>
   <sheets>
     <sheet name="Listino prezzi" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="15">
   <si>
     <t>Data</t>
   </si>
@@ -191,7 +191,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -203,10 +203,14 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -527,8 +531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C4712A1-E211-4964-8595-6A4208A9C4E2}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -538,80 +542,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="8">
+      <c r="A3" s="7">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="8">
+      <c r="A4" s="7">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="10">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="8">
+      <c r="A5" s="7">
         <v>3</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="10">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="8">
+      <c r="A6" s="7">
         <v>4</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="8">
+      <c r="B6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="8">
+      <c r="A7" s="7">
         <v>5</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="10">
         <v>1.2</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C8" s="5"/>
+      <c r="A8" s="7">
+        <v>6</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="10">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="21" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D21" s="5"/>
@@ -628,9 +640,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C166B106-97B8-4086-A7D8-FAEA7677AD52}">
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -639,7 +649,7 @@
     <col min="3" max="3" width="10.20703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.26171875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.89453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.68359375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -676,7 +686,10 @@
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2" s="4"/>
+      <c r="F2" s="9">
+        <f>D2*E2</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2">
@@ -692,7 +705,10 @@
       <c r="E3">
         <v>6</v>
       </c>
-      <c r="F3" s="4"/>
+      <c r="F3" s="9">
+        <f t="shared" ref="F3:F54" si="0">D3*E3</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2">
@@ -708,7 +724,10 @@
       <c r="E4">
         <v>10</v>
       </c>
-      <c r="F4" s="4"/>
+      <c r="F4" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2">
@@ -724,7 +743,10 @@
       <c r="E5">
         <v>7</v>
       </c>
-      <c r="F5" s="4"/>
+      <c r="F5" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2">
@@ -740,7 +762,10 @@
       <c r="E6">
         <v>4</v>
       </c>
-      <c r="F6" s="4"/>
+      <c r="F6" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2">
@@ -756,7 +781,10 @@
       <c r="E7">
         <v>3</v>
       </c>
-      <c r="F7" s="4"/>
+      <c r="F7" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2">
@@ -772,7 +800,10 @@
       <c r="E8">
         <v>3</v>
       </c>
-      <c r="F8" s="4"/>
+      <c r="F8" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2">
@@ -788,7 +819,10 @@
       <c r="E9">
         <v>9</v>
       </c>
-      <c r="F9" s="4"/>
+      <c r="F9" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2">
@@ -804,7 +838,10 @@
       <c r="E10">
         <v>3</v>
       </c>
-      <c r="F10" s="4"/>
+      <c r="F10" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2">
@@ -820,7 +857,10 @@
       <c r="E11">
         <v>2</v>
       </c>
-      <c r="F11" s="4"/>
+      <c r="F11" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2">
@@ -836,7 +876,10 @@
       <c r="E12">
         <v>2</v>
       </c>
-      <c r="F12" s="4"/>
+      <c r="F12" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2">
@@ -852,7 +895,10 @@
       <c r="E13">
         <v>1</v>
       </c>
-      <c r="F13" s="4"/>
+      <c r="F13" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2">
@@ -868,7 +914,10 @@
       <c r="E14">
         <v>3</v>
       </c>
-      <c r="F14" s="4"/>
+      <c r="F14" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="2">
@@ -884,7 +933,10 @@
       <c r="E15">
         <v>9</v>
       </c>
-      <c r="F15" s="4"/>
+      <c r="F15" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2">
@@ -900,7 +952,10 @@
       <c r="E16">
         <v>8</v>
       </c>
-      <c r="F16" s="4"/>
+      <c r="F16" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="2">
@@ -916,7 +971,10 @@
       <c r="E17">
         <v>7</v>
       </c>
-      <c r="F17" s="4"/>
+      <c r="F17" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="2">
@@ -932,7 +990,10 @@
       <c r="E18">
         <v>7</v>
       </c>
-      <c r="F18" s="4"/>
+      <c r="F18" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="2">
@@ -948,7 +1009,10 @@
       <c r="E19">
         <v>5</v>
       </c>
-      <c r="F19" s="4"/>
+      <c r="F19" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="2">
@@ -964,7 +1028,10 @@
       <c r="E20">
         <v>9</v>
       </c>
-      <c r="F20" s="4"/>
+      <c r="F20" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="2">
@@ -980,7 +1047,10 @@
       <c r="E21">
         <v>4</v>
       </c>
-      <c r="F21" s="4"/>
+      <c r="F21" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="2">
@@ -996,7 +1066,10 @@
       <c r="E22">
         <v>2</v>
       </c>
-      <c r="F22" s="4"/>
+      <c r="F22" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="2">
@@ -1012,7 +1085,10 @@
       <c r="E23">
         <v>2</v>
       </c>
-      <c r="F23" s="4"/>
+      <c r="F23" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="2">
@@ -1028,7 +1104,10 @@
       <c r="E24">
         <v>10</v>
       </c>
-      <c r="F24" s="4"/>
+      <c r="F24" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="2">
@@ -1044,7 +1123,10 @@
       <c r="E25">
         <v>2</v>
       </c>
-      <c r="F25" s="4"/>
+      <c r="F25" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="2">
@@ -1060,7 +1142,10 @@
       <c r="E26">
         <v>9</v>
       </c>
-      <c r="F26" s="4"/>
+      <c r="F26" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="2">
@@ -1076,7 +1161,10 @@
       <c r="E27">
         <v>3</v>
       </c>
-      <c r="F27" s="4"/>
+      <c r="F27" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="2">
@@ -1092,7 +1180,10 @@
       <c r="E28">
         <v>2</v>
       </c>
-      <c r="F28" s="4"/>
+      <c r="F28" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="2">
@@ -1108,7 +1199,10 @@
       <c r="E29">
         <v>3</v>
       </c>
-      <c r="F29" s="4"/>
+      <c r="F29" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="2">
@@ -1124,7 +1218,10 @@
       <c r="E30">
         <v>5</v>
       </c>
-      <c r="F30" s="4"/>
+      <c r="F30" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="2">
@@ -1140,7 +1237,10 @@
       <c r="E31">
         <v>9</v>
       </c>
-      <c r="F31" s="4"/>
+      <c r="F31" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="2">
@@ -1156,7 +1256,10 @@
       <c r="E32">
         <v>10</v>
       </c>
-      <c r="F32" s="4"/>
+      <c r="F32" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="2">
@@ -1172,7 +1275,10 @@
       <c r="E33">
         <v>4</v>
       </c>
-      <c r="F33" s="4"/>
+      <c r="F33" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="2">
@@ -1188,7 +1294,10 @@
       <c r="E34">
         <v>7</v>
       </c>
-      <c r="F34" s="4"/>
+      <c r="F34" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="2">
@@ -1204,7 +1313,10 @@
       <c r="E35">
         <v>5</v>
       </c>
-      <c r="F35" s="4"/>
+      <c r="F35" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="2">
@@ -1220,7 +1332,10 @@
       <c r="E36">
         <v>8</v>
       </c>
-      <c r="F36" s="4"/>
+      <c r="F36" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="2">
@@ -1236,7 +1351,10 @@
       <c r="E37">
         <v>10</v>
       </c>
-      <c r="F37" s="4"/>
+      <c r="F37" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="2">
@@ -1252,7 +1370,10 @@
       <c r="E38">
         <v>7</v>
       </c>
-      <c r="F38" s="4"/>
+      <c r="F38" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="2">
@@ -1268,7 +1389,10 @@
       <c r="E39">
         <v>7</v>
       </c>
-      <c r="F39" s="4"/>
+      <c r="F39" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="2">
@@ -1284,7 +1408,10 @@
       <c r="E40">
         <v>10</v>
       </c>
-      <c r="F40" s="4"/>
+      <c r="F40" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="2">
@@ -1300,7 +1427,10 @@
       <c r="E41">
         <v>1</v>
       </c>
-      <c r="F41" s="4"/>
+      <c r="F41" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="2">
@@ -1316,7 +1446,10 @@
       <c r="E42">
         <v>5</v>
       </c>
-      <c r="F42" s="4"/>
+      <c r="F42" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="2">
@@ -1332,7 +1465,10 @@
       <c r="E43">
         <v>8</v>
       </c>
-      <c r="F43" s="4"/>
+      <c r="F43" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="2">
@@ -1348,7 +1484,10 @@
       <c r="E44">
         <v>6</v>
       </c>
-      <c r="F44" s="4"/>
+      <c r="F44" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="2">
@@ -1364,7 +1503,10 @@
       <c r="E45">
         <v>6</v>
       </c>
-      <c r="F45" s="4"/>
+      <c r="F45" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="2">
@@ -1380,7 +1522,10 @@
       <c r="E46">
         <v>10</v>
       </c>
-      <c r="F46" s="4"/>
+      <c r="F46" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="2">
@@ -1396,7 +1541,10 @@
       <c r="E47">
         <v>7</v>
       </c>
-      <c r="F47" s="4"/>
+      <c r="F47" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="2">
@@ -1412,7 +1560,10 @@
       <c r="E48">
         <v>6</v>
       </c>
-      <c r="F48" s="4"/>
+      <c r="F48" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="2">
@@ -1428,7 +1579,10 @@
       <c r="E49">
         <v>1</v>
       </c>
-      <c r="F49" s="4"/>
+      <c r="F49" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="2">
@@ -1444,7 +1598,10 @@
       <c r="E50">
         <v>5</v>
       </c>
-      <c r="F50" s="4"/>
+      <c r="F50" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="2">
@@ -1460,7 +1617,10 @@
       <c r="E51">
         <v>2</v>
       </c>
-      <c r="F51" s="4"/>
+      <c r="F51" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="2">
@@ -1476,7 +1636,10 @@
       <c r="E52">
         <v>3</v>
       </c>
-      <c r="F52" s="4"/>
+      <c r="F52" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="2">
@@ -1492,7 +1655,10 @@
       <c r="E53">
         <v>1</v>
       </c>
-      <c r="F53" s="4"/>
+      <c r="F53" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="2">
@@ -1508,7 +1674,10 @@
       <c r="E54">
         <v>1</v>
       </c>
-      <c r="F54" s="4"/>
+      <c r="F54" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
